--- a/data/relationships/relative_relations.xlsx
+++ b/data/relationships/relative_relations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325512F-B489-4DF3-9D9E-D3DB3C13D797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DC019A-F750-4834-9579-367B775AC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF23ADFC-7355-454C-8301-86BE885D5D97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CF23ADFC-7355-454C-8301-86BE885D5D97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>student_housing</t>
-  </si>
-  <si>
-    <t>co_cooking_A</t>
   </si>
   <si>
     <t>assisted_living</t>
   </si>
   <si>
-    <t>co_cooking_B</t>
-  </si>
-  <si>
     <t>starter_housing</t>
-  </si>
-  <si>
-    <t>co_cooking_C</t>
   </si>
   <si>
     <t>co_working</t>
@@ -599,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99D39B-9044-406B-B656-828F303BFC5B}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +601,7 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -669,17 +660,8 @@
       <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +669,7 @@
         <v>0.4</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -705,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
@@ -714,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
@@ -740,25 +722,16 @@
       <c r="T2" s="4">
         <v>0</v>
       </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -811,17 +784,8 @@
       <c r="T3" s="8">
         <v>0</v>
       </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -832,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -847,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -856,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
@@ -882,17 +846,8 @@
       <c r="T4" s="8">
         <v>0</v>
       </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -903,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -918,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8">
         <v>0</v>
@@ -948,22 +903,13 @@
         <v>0</v>
       </c>
       <c r="S5" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="8">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -977,28 +923,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="8">
         <v>0</v>
@@ -1016,25 +962,16 @@
         <v>0</v>
       </c>
       <c r="R6" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S6" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1054,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1095,17 +1032,8 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1122,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -1166,61 +1094,52 @@
       <c r="T8" s="8">
         <v>0</v>
       </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.3</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
       <c r="J9" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
       </c>
       <c r="M9" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -1237,17 +1156,8 @@
       <c r="T9" s="8">
         <v>0</v>
       </c>
-      <c r="U9" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1273,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
@@ -1308,17 +1218,8 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -1371,36 +1272,27 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T11" s="8">
         <v>0</v>
       </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -1424,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -1450,17 +1342,8 @@
       <c r="T12" s="8">
         <v>0</v>
       </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
@@ -1498,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -1521,17 +1404,8 @@
       <c r="T13" s="8">
         <v>0</v>
       </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1592,17 +1466,8 @@
       <c r="T14" s="8">
         <v>0</v>
       </c>
-      <c r="U14" s="8">
-        <v>1</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
@@ -1646,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P15" s="8">
         <v>0</v>
@@ -1655,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="8">
         <v>0</v>
@@ -1663,17 +1528,8 @@
       <c r="T15" s="8">
         <v>0</v>
       </c>
-      <c r="U15" s="8">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
@@ -1734,17 +1590,8 @@
       <c r="T16" s="8">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1805,17 +1652,8 @@
       <c r="T17" s="8">
         <v>0</v>
       </c>
-      <c r="U17" s="8">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1847,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
@@ -1859,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="8">
         <v>0</v>
@@ -1871,22 +1709,13 @@
         <v>1</v>
       </c>
       <c r="S18" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T18" s="8">
         <v>0</v>
       </c>
-      <c r="U18" s="8">
-        <v>1</v>
-      </c>
-      <c r="V18" s="8">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1900,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1918,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="8">
         <v>0</v>
@@ -1939,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S19" s="7">
         <v>1</v>
@@ -1947,17 +1776,8 @@
       <c r="T19" s="8">
         <v>0</v>
       </c>
-      <c r="U19" s="8">
-        <v>0</v>
-      </c>
-      <c r="V19" s="8">
-        <v>0</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -2016,228 +1836,6 @@
         <v>0</v>
       </c>
       <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="8">
-        <v>0</v>
-      </c>
-      <c r="V20" s="8">
-        <v>0</v>
-      </c>
-      <c r="W20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="S21" s="8">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
-      <c r="V21" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="W21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8">
-        <v>0</v>
-      </c>
-      <c r="U22" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="8">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8">
-        <v>0</v>
-      </c>
-      <c r="V23" s="8">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
         <v>1</v>
       </c>
     </row>
